--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/2.3_IE_Final01.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/2.3_IE_Final01.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033E9332-4063-4015-A023-F3FF98591FF8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A2362C-2492-4E6B-93E3-14098DD6D08C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="16425" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphics 1 to 11" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -49,9 +49,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -263,179 +270,179 @@
   </borders>
   <cellStyleXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="37" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -463,37 +470,41 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="37" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -986,13 +997,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="1" max="1" width="4.25" customWidth="1"/>
     <col min="3" max="3" width="1.375" customWidth="1"/>
     <col min="5" max="5" width="1.375" style="2" customWidth="1"/>
     <col min="7" max="7" width="1.375" customWidth="1"/>
@@ -1002,32 +1013,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
     </row>
     <row r="2" spans="1:12" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
     </row>
     <row r="3" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
@@ -1068,7 +1079,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="7"/>
       <c r="I4" s="10"/>
-      <c r="J4" s="26">
+      <c r="J4" s="23">
         <v>1200</v>
       </c>
       <c r="K4" s="12"/>
@@ -1082,13 +1093,13 @@
       <c r="C5" s="8"/>
       <c r="D5" s="14"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="15">
+      <c r="F5" s="29">
         <v>500</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="13"/>
       <c r="I5" s="10"/>
-      <c r="J5" s="27">
+      <c r="J5" s="24">
         <v>1700</v>
       </c>
       <c r="K5" s="12"/>
@@ -1108,7 +1119,7 @@
         <v>900</v>
       </c>
       <c r="I6" s="10"/>
-      <c r="J6" s="27">
+      <c r="J6" s="24">
         <v>800</v>
       </c>
       <c r="K6" s="12"/>
@@ -1128,7 +1139,7 @@
       <c r="G7" s="9"/>
       <c r="H7" s="16"/>
       <c r="I7" s="10"/>
-      <c r="J7" s="28">
+      <c r="J7" s="25">
         <v>2200</v>
       </c>
       <c r="K7" s="12"/>
@@ -1148,7 +1159,7 @@
         <v>700</v>
       </c>
       <c r="I8" s="10"/>
-      <c r="J8" s="28">
+      <c r="J8" s="25">
         <v>1500</v>
       </c>
       <c r="K8" s="12"/>
